--- a/ac translations/Indonesian.xlsx
+++ b/ac translations/Indonesian.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvi\Desktop\dev\helpers\translation fetcher\ac translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4605"/>
   </bookViews>
   <sheets>
     <sheet name="English Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1199,6 +1199,12 @@
     <t>remote untuk air conditioner</t>
   </si>
   <si>
+    <t>Ringkasan</t>
+  </si>
+  <si>
+    <t>Remot AC untuk ____ - GRATIS</t>
+  </si>
+  <si>
     <t>Edisi GRATIS untuk waktu terbatas_x000D_
 Kehilangan remot AC anda? Tidak masalah!_x000D_
 _x000D_
@@ -1212,8 +1218,6 @@
 _x000D_
 Remote anda hilang? Tanya saja kami dari aplikasi_x000D_
 Fitur:_x000D_
-* Kontrol TV ____  dari telepon anda_x000D_
-* Mengontrol VOLUME  TV anda (atas/bawah/mute/av)_x000D_
 * SIMPAN remote favorit anda untuk memudahkan akses_x000D_
 * TIDAK perlu instal, cukup klik dan gunakan
 Desain MANTAB dengan antarmuka yang keren &amp; mudah_x000D_
@@ -1223,17 +1227,11 @@
 Silahkan hubungi kami di ______x000D_
 TV remot kontrol untuk klik dan penggunaan perangkat anda</t>
   </si>
-  <si>
-    <t>Ringkasan</t>
-  </si>
-  <si>
-    <t>Remot AC untuk ____ - GRATIS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -1717,11 +1715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1764,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1778,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -3348,7 +3346,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="375">
+    <row r="136" spans="1:6" ht="345">
       <c r="A136" s="10" t="s">
         <v>263</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/ac translations/Indonesian.xlsx
+++ b/ac translations/Indonesian.xlsx
@@ -15,7 +15,6 @@
     <sheet name="English Translation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171026"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1228,7 +1227,7 @@
     <t>Ringkasan</t>
   </si>
   <si>
-    <t>Remot AC untuk Samsung - GRATIS</t>
+    <t>Remot AC untuk ____ - GRATIS</t>
   </si>
 </sst>
 </file>
@@ -1721,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
